--- a/static/teckshek.xlsx
+++ b/static/teckshek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE47289-F13B-3E44-8D9B-9544E6907C08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17D9952-6CB1-9845-A9C2-5A6D3D664506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{B297866C-A552-4445-9711-7DA7CC8F27C2}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16740" xr2:uid="{B297866C-A552-4445-9711-7DA7CC8F27C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,8 @@
 Title; Chapter 4: Open Mic Morning in Pakistan
 Video; Not Available yet
 Duration; 0314 hrs
-Speaker; 1030 hrs, Kick Start by Qasim Ali, techshek4.pptx
+Speaker; 1030 hrs, Kick Start by Qasim Ali, techshek4.pptx, Download
+Speaker; 1400 hrs, Dedicated Parents by Mona Majeed, https://prezi.com/view/xtik0a6jQUqf2BIcVjio/, Open Link
 Pictures; Not Found</t>
   </si>
 </sst>
@@ -437,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
